--- a/Models/Prospective_conso/data/Hypotheses_residentiel_2D_bis.xlsx
+++ b/Models/Prospective_conso/data/Hypotheses_residentiel_2D_bis.xlsx
@@ -1088,13 +1088,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3296205</v>
+        <v>320487</v>
       </c>
       <c r="D2" t="n">
-        <v>239.8445075447252</v>
+        <v>239.4219237582472</v>
       </c>
       <c r="E2" t="n">
-        <v>156.3396158376272</v>
+        <v>66.95905227218795</v>
       </c>
     </row>
     <row r="3">
@@ -1256,13 +1256,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7003032</v>
+        <v>3775624</v>
       </c>
       <c r="D10" t="n">
-        <v>276.9415384914412</v>
+        <v>274.568821693265</v>
       </c>
       <c r="E10" t="n">
-        <v>138.7559571931911</v>
+        <v>112.8278356336831</v>
       </c>
     </row>
     <row r="11">

--- a/Models/Prospective_conso/data/Hypotheses_residentiel_2D_bis.xlsx
+++ b/Models/Prospective_conso/data/Hypotheses_residentiel_2D_bis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Code/Etude/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engie-my.sharepoint.com/personal/kv6345_engie_com/Documents/Documents/5-Python/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07A9F12-2C17-9F43-8799-758091472D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{A07A9F12-2C17-9F43-8799-758091472D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D28DC733-C84C-4BDF-BB12-490DA543104A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0D" sheetId="1" r:id="rId1"/>
@@ -473,11 +473,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -493,7 +498,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -501,7 +506,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -509,7 +514,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -528,9 +533,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -562,7 +567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -594,7 +599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -626,7 +631,7 @@
         <v>0.72104118463674227</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -658,7 +663,7 @@
         <v>0.56914728682170546</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -690,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -722,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -754,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -786,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -829,9 +834,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,7 +853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -865,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -882,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -916,7 +921,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -933,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -950,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -967,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -993,16 +998,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,7 +1024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1036,7 +1041,7 @@
         <v>66.959052272187947</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1053,7 +1058,7 @@
         <v>68.656688977716797</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1070,7 +1075,7 @@
         <v>66.283435853153662</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1087,7 +1092,7 @@
         <v>62.634561091350477</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1104,7 +1109,7 @@
         <v>52.973740041026069</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1121,7 +1126,7 @@
         <v>44.438915275434461</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1138,7 +1143,7 @@
         <v>10.255134294331031</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1172,7 +1177,7 @@
         <v>112.82783563368309</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1189,7 +1194,7 @@
         <v>116.852067445918</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1206,7 +1211,7 @@
         <v>109.2501764322046</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1223,7 +1228,7 @@
         <v>86.516098080883552</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1240,7 +1245,7 @@
         <v>105.71703104202599</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1257,7 +1262,7 @@
         <v>92.499838314799049</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1274,7 +1279,7 @@
         <v>21.3461165341844</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1302,9 +1307,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1312,7 +1317,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1320,7 +1325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>

--- a/Models/Prospective_conso/data/Hypotheses_residentiel_2D_bis.xlsx
+++ b/Models/Prospective_conso/data/Hypotheses_residentiel_2D_bis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engie-my.sharepoint.com/personal/kv6345_engie_com/Documents/Documents/5-Python/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Code/Etude/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_BE362942A38AD65B737F4D5C4D78BD8C3B264884" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0599E2B4-CE07-4F5B-B0CB-16B3FDC13DAE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6FD5E5-1CB1-8143-8A5E-2E3ED6DBDDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23100" yWindow="5020" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0D" sheetId="1" r:id="rId1"/>
@@ -466,12 +466,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -487,7 +487,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -495,7 +495,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -503,7 +503,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -522,9 +522,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -620,7 +620,7 @@
         <v>0.72104118463674227</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -652,7 +652,7 @@
         <v>0.56914728682170546</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -821,11 +821,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,7 +847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -859,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -876,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -893,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -910,7 +915,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -927,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -944,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -961,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -987,13 +992,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1010,7 +1015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1027,7 +1032,7 @@
         <v>66.959052272187947</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1044,7 +1049,7 @@
         <v>68.656688977716797</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1061,7 +1066,7 @@
         <v>66.283435853153662</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1078,7 +1083,7 @@
         <v>62.634561091350477</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1095,7 +1100,7 @@
         <v>52.973740041026069</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1112,7 +1117,7 @@
         <v>44.438915275434461</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1129,7 +1134,7 @@
         <v>10.255134294331031</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1146,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1163,7 +1168,7 @@
         <v>112.82783563368309</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1180,7 +1185,7 @@
         <v>116.852067445918</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,7 +1202,7 @@
         <v>109.2501764322046</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1214,7 +1219,7 @@
         <v>86.516098080883552</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1231,7 +1236,7 @@
         <v>105.71703104202599</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1248,7 +1253,7 @@
         <v>92.499838314799049</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1265,7 +1270,7 @@
         <v>21.3461165341844</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>

--- a/Models/Prospective_conso/data/Hypotheses_residentiel_2D_bis.xlsx
+++ b/Models/Prospective_conso/data/Hypotheses_residentiel_2D_bis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Code/Etude/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engie-my.sharepoint.com/personal/kv6345_engie_com/Documents/Documents/5-Python/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6FD5E5-1CB1-8143-8A5E-2E3ED6DBDDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_BE362942A3FAD446D30FDB72F9D9A98C3B264884" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B610555-AD77-489C-8612-EF2EF30069BE}"/>
   <bookViews>
-    <workbookView xWindow="23100" yWindow="5020" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0D" sheetId="1" r:id="rId1"/>
@@ -465,13 +465,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -487,7 +485,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -495,7 +493,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -503,7 +501,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -522,9 +520,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -556,7 +554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -588,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -620,7 +618,7 @@
         <v>0.72104118463674227</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -652,7 +650,7 @@
         <v>0.56914728682170546</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -684,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -716,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -748,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -780,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -821,16 +819,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="32.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,7 +840,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -864,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -881,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -915,7 +908,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -932,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -949,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -966,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -992,13 +985,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,7 +1006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,13 +1017,13 @@
         <v>320487</v>
       </c>
       <c r="D2">
-        <v>239.4219237582472</v>
+        <v>160.74510882120859</v>
       </c>
       <c r="E2">
         <v>66.959052272187947</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1043,13 +1034,13 @@
         <v>475230</v>
       </c>
       <c r="D3">
-        <v>274.41921261451631</v>
+        <v>178.99851878081759</v>
       </c>
       <c r="E3">
         <v>68.656688977716797</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1060,13 +1051,13 @@
         <v>5334267</v>
       </c>
       <c r="D4">
-        <v>210.65589652585069</v>
+        <v>148.19407823679501</v>
       </c>
       <c r="E4">
         <v>66.283435853153662</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1077,13 +1068,13 @@
         <v>1554877</v>
       </c>
       <c r="D5">
-        <v>251.69055157406021</v>
+        <v>167.49279128952941</v>
       </c>
       <c r="E5">
         <v>62.634561091350477</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1094,13 +1085,13 @@
         <v>3995209</v>
       </c>
       <c r="D6">
-        <v>290.50867907958269</v>
+        <v>186.58663873795351</v>
       </c>
       <c r="E6">
         <v>52.973740041026069</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1111,13 +1102,13 @@
         <v>636489.75</v>
       </c>
       <c r="D7">
-        <v>227.27193944513041</v>
+        <v>147.12858456177321</v>
       </c>
       <c r="E7">
         <v>44.438915275434461</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1128,13 +1119,13 @@
         <v>146882.25</v>
       </c>
       <c r="D8">
-        <v>52.447370641183937</v>
+        <v>33.952750283486118</v>
       </c>
       <c r="E8">
         <v>10.255134294331031</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1151,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1162,13 +1153,13 @@
         <v>3775624</v>
       </c>
       <c r="D10">
-        <v>274.56882169326502</v>
+        <v>178.46483179693311</v>
       </c>
       <c r="E10">
         <v>112.82783563368309</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1179,13 +1170,13 @@
         <v>2428267</v>
       </c>
       <c r="D11">
-        <v>296.99721828122392</v>
+        <v>189.3209491567689</v>
       </c>
       <c r="E11">
         <v>116.852067445918</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1196,13 +1187,13 @@
         <v>5168802</v>
       </c>
       <c r="D12">
-        <v>233.48407287898809</v>
+        <v>159.06436037646341</v>
       </c>
       <c r="E12">
         <v>109.2501764322046</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1213,13 +1204,13 @@
         <v>13311</v>
       </c>
       <c r="D13">
-        <v>291.28067978964322</v>
+        <v>186.3295070204899</v>
       </c>
       <c r="E13">
         <v>86.516098080883552</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1230,13 +1221,13 @@
         <v>4442744</v>
       </c>
       <c r="D14">
-        <v>292.17667758551579</v>
+        <v>186.8477976985551</v>
       </c>
       <c r="E14">
         <v>105.71703104202599</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1247,13 +1238,13 @@
         <v>365907.75</v>
       </c>
       <c r="D15">
-        <v>227.98096371844491</v>
+        <v>146.6052858044018</v>
       </c>
       <c r="E15">
         <v>92.499838314799049</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1264,13 +1255,13 @@
         <v>84440.25</v>
       </c>
       <c r="D16">
-        <v>52.610991627333448</v>
+        <v>33.831989031785021</v>
       </c>
       <c r="E16">
         <v>21.3461165341844</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>

--- a/Models/Prospective_conso/data/Hypotheses_residentiel_2D_bis.xlsx
+++ b/Models/Prospective_conso/data/Hypotheses_residentiel_2D_bis.xlsx
@@ -1,29 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engie-my.sharepoint.com/personal/kv6345_engie_com/Documents/Documents/5-Python/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Code/Etude/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_BE362942A3FAD446D30FDB72F9D9A98C3B264884" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B610555-AD77-489C-8612-EF2EF30069BE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7AC8D9-00B3-0640-B8D5-DFEA43634604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0D" sheetId="1" r:id="rId1"/>
     <sheet name="retrofit_Transition" sheetId="2" r:id="rId2"/>
-    <sheet name="Energy_source" sheetId="3" r:id="rId3"/>
-    <sheet name="res_type_Energy_source" sheetId="4" r:id="rId4"/>
+    <sheet name="year_Vecteur" sheetId="5" r:id="rId3"/>
+    <sheet name="Energy_source" sheetId="3" r:id="rId4"/>
+    <sheet name="res_type_Energy_source" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="39">
   <si>
     <t>Nom</t>
   </si>
@@ -101,13 +112,52 @@
   </si>
   <si>
     <t>house</t>
+  </si>
+  <si>
+    <t>Vecteur</t>
+  </si>
+  <si>
+    <t>direct_emissions</t>
+  </si>
+  <si>
+    <t>indirect_emissions</t>
+  </si>
+  <si>
+    <t>elec</t>
+  </si>
+  <si>
+    <t>gaz</t>
+  </si>
+  <si>
+    <t>fioul</t>
+  </si>
+  <si>
+    <t>bois</t>
+  </si>
+  <si>
+    <t>charbon</t>
+  </si>
+  <si>
+    <t>ordures</t>
+  </si>
+  <si>
+    <t>autres</t>
+  </si>
+  <si>
+    <t>init_conso_unitaire_charbon</t>
+  </si>
+  <si>
+    <t>init_conso_unitaire_ordures</t>
+  </si>
+  <si>
+    <t>init_conso_unitaire_autres</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +169,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -152,15 +210,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,11 +547,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -485,7 +570,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -493,7 +578,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -501,7 +586,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -520,9 +605,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -554,7 +639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -586,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -618,7 +703,7 @@
         <v>0.72104118463674227</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -650,7 +735,7 @@
         <v>0.56914728682170546</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -682,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -714,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -746,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -778,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -816,14 +901,246 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1790AA2B-6CE7-B645-A922-48BB6E51E4C4}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="2">
+        <v>187</v>
+      </c>
+      <c r="D3" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="2">
+        <v>272</v>
+      </c>
+      <c r="D4" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="2">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="2">
+        <v>346.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="2">
+        <v>346</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2050</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2050</v>
+      </c>
+      <c r="C10" s="2">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2050</v>
+      </c>
+      <c r="C11" s="2">
+        <v>272</v>
+      </c>
+      <c r="D11" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2050</v>
+      </c>
+      <c r="C12" s="2">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2050</v>
+      </c>
+      <c r="C13" s="2">
+        <v>346.5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2050</v>
+      </c>
+      <c r="C14" s="2">
+        <v>346</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2050</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="2" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,140 +1156,222 @@
       <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.248</v>
+      </c>
+      <c r="H5">
+        <f>1-SUM(B5:G5)</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>0.25</v>
-      </c>
-      <c r="C9">
-        <v>0.33</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="B9" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
         <v>0</v>
       </c>
     </row>
@@ -981,15 +1380,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="18.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1006,7 +1410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1023,7 +1427,7 @@
         <v>66.959052272187947</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1040,7 +1444,7 @@
         <v>68.656688977716797</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,7 +1461,7 @@
         <v>66.283435853153662</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1074,7 +1478,7 @@
         <v>62.634561091350477</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1091,7 +1495,7 @@
         <v>52.973740041026069</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1108,7 +1512,7 @@
         <v>44.438915275434461</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1125,7 +1529,7 @@
         <v>10.255134294331031</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1142,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,7 +1563,7 @@
         <v>112.82783563368309</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1176,7 +1580,7 @@
         <v>116.852067445918</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1193,7 +1597,7 @@
         <v>109.2501764322046</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,7 +1614,7 @@
         <v>86.516098080883552</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1227,7 +1631,7 @@
         <v>105.71703104202599</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1244,7 +1648,7 @@
         <v>92.499838314799049</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1261,7 +1665,7 @@
         <v>21.3461165341844</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>

--- a/Models/Prospective_conso/data/Hypotheses_residentiel_2D_bis.xlsx
+++ b/Models/Prospective_conso/data/Hypotheses_residentiel_2D_bis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engie-my.sharepoint.com/personal/kv6345_engie_com/Documents/Documents/5-Python/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_BE362942A3FAD446D30FDB72F9D9A98C3B264884" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B610555-AD77-489C-8612-EF2EF30069BE}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_BE362942A3FAD446D30FDB72F9D9A98C3B264884" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95B6B835-435D-4F44-BE85-549872D4C550}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0D" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,19 @@
     <sheet name="Energy_source" sheetId="3" r:id="rId3"/>
     <sheet name="res_type_Energy_source" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -465,9 +477,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -985,7 +1000,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
